--- a/MVP_02/SHOPPING_LISTS/RS COMPONENTS.xlsx
+++ b/MVP_02/SHOPPING_LISTS/RS COMPONENTS.xlsx
@@ -878,7 +878,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>

--- a/MVP_02/SHOPPING_LISTS/RS COMPONENTS.xlsx
+++ b/MVP_02/SHOPPING_LISTS/RS COMPONENTS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -73,7 +73,7 @@
     <t>20-019443</t>
   </si>
   <si>
-    <t>20-019453</t>
+    <t>20-019511</t>
   </si>
   <si>
     <t>20-019473</t>
@@ -118,7 +118,7 @@
     <t>BOOTLACE FERRULE</t>
   </si>
   <si>
-    <t>RED BUTTON</t>
+    <t>EMERGENCY STOP</t>
   </si>
   <si>
     <t xml:space="preserve">MOLEX RECEPTICLE </t>
@@ -142,13 +142,31 @@
     <t>200-6361</t>
   </si>
   <si>
+    <t>6192385</t>
+  </si>
+  <si>
+    <t>6192521</t>
+  </si>
+  <si>
+    <t>6192559</t>
+  </si>
+  <si>
+    <t>6192391</t>
+  </si>
+  <si>
+    <t>6192442</t>
+  </si>
+  <si>
+    <t>6192363</t>
+  </si>
+  <si>
     <t>180-8409</t>
   </si>
   <si>
     <t>228-0321</t>
   </si>
   <si>
-    <t>180-9504</t>
+    <t>330-9388</t>
   </si>
   <si>
     <t>670-4515</t>
@@ -164,6 +182,9 @@
   </si>
   <si>
     <t>821-526</t>
+  </si>
+  <si>
+    <t>SCHNEIDER</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -553,7 +574,7 @@
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
@@ -604,7 +625,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -623,8 +644,8 @@
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1">
-        <v>6192385</v>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -643,8 +664,8 @@
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1">
-        <v>6192521</v>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -663,8 +684,8 @@
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1">
-        <v>6192559</v>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -683,8 +704,8 @@
       <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1">
-        <v>6192391</v>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -703,8 +724,8 @@
       <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1">
-        <v>6192442</v>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -723,8 +744,8 @@
       <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1">
-        <v>6192363</v>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -744,7 +765,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -764,10 +785,10 @@
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -787,7 +808,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -807,7 +831,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -827,10 +851,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
@@ -850,7 +874,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -870,7 +894,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
@@ -890,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>

--- a/MVP_02/SHOPPING_LISTS/RS COMPONENTS.xlsx
+++ b/MVP_02/SHOPPING_LISTS/RS COMPONENTS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -76,12 +76,6 @@
     <t>20-019511</t>
   </si>
   <si>
-    <t>20-019473</t>
-  </si>
-  <si>
-    <t>20-019477</t>
-  </si>
-  <si>
     <t>20-019480</t>
   </si>
   <si>
@@ -91,6 +85,9 @@
     <t>20-019491</t>
   </si>
   <si>
+    <t>20-019525</t>
+  </si>
+  <si>
     <t>AC/DC POWER SUPPLY</t>
   </si>
   <si>
@@ -121,12 +118,6 @@
     <t>EMERGENCY STOP</t>
   </si>
   <si>
-    <t xml:space="preserve">MOLEX RECEPTICLE </t>
-  </si>
-  <si>
-    <t>SOLID STATE RELAY</t>
-  </si>
-  <si>
     <t>OMRON 120mm FAN</t>
   </si>
   <si>
@@ -136,46 +127,25 @@
     <t>SS SPRING</t>
   </si>
   <si>
+    <t>TYPE K THERMOCOUPLE</t>
+  </si>
+  <si>
     <t>RS COMPONENTS</t>
   </si>
   <si>
     <t>200-6361</t>
   </si>
   <si>
-    <t>6192385</t>
-  </si>
-  <si>
-    <t>6192521</t>
-  </si>
-  <si>
-    <t>6192559</t>
-  </si>
-  <si>
-    <t>6192391</t>
-  </si>
-  <si>
-    <t>6192442</t>
-  </si>
-  <si>
-    <t>6192363</t>
-  </si>
-  <si>
     <t>180-8409</t>
   </si>
   <si>
     <t>228-0321</t>
   </si>
   <si>
-    <t>330-9388</t>
-  </si>
-  <si>
-    <t>670-4515</t>
-  </si>
-  <si>
-    <t>EL100D10-05</t>
-  </si>
-  <si>
-    <t>R89F-DS1238L</t>
+    <t>425-8449</t>
+  </si>
+  <si>
+    <t>194-0653</t>
   </si>
   <si>
     <t>126-4964</t>
@@ -184,7 +154,13 @@
     <t>821-526</t>
   </si>
   <si>
+    <t>444-1275</t>
+  </si>
+  <si>
     <t>SCHNEIDER</t>
+  </si>
+  <si>
+    <t>OMRON</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -559,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -571,9 +547,9 @@
     <col min="1" max="26" width="9.140625" style="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
@@ -610,22 +586,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -633,19 +609,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6192385</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -653,19 +629,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6192521</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -673,19 +649,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6192559</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -693,19 +669,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6192391</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -713,19 +689,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6192442</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -733,19 +709,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6192363</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -753,19 +729,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -773,22 +749,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -796,22 +772,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -819,19 +795,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -839,22 +818,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
@@ -862,62 +838,42 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="1">
-        <v>124</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
